--- a/assets/layout/screen1Elements.xlsx
+++ b/assets/layout/screen1Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Buttons"/>
@@ -17,18 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Parameter</t>
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>grid</t>
   </si>
   <si>
     <t>rows</t>
@@ -562,40 +556,40 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3">
         <v>1100</v>
@@ -616,10 +610,10 @@
         <v>17</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -638,7 +632,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -657,40 +651,40 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>600</v>
@@ -711,10 +705,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -723,7 +717,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
         <v>50</v>
@@ -744,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3">
         <v>3</v>
@@ -756,7 +750,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3">
         <v>100</v>
@@ -777,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
@@ -789,7 +783,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>200</v>
@@ -810,10 +804,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3">
         <v>3</v>
@@ -822,7 +816,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>320</v>
@@ -843,10 +837,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
@@ -855,7 +849,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3">
         <v>440</v>
@@ -876,10 +870,10 @@
         <v>7</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
@@ -888,7 +882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>560</v>
@@ -909,10 +903,10 @@
         <v>9</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -921,7 +915,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>680</v>
@@ -942,10 +936,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
@@ -954,7 +948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
         <v>800</v>
@@ -975,10 +969,10 @@
         <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J10" s="3">
         <v>3</v>
@@ -987,7 +981,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3">
         <v>920</v>
@@ -1008,10 +1002,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3">
         <v>3</v>
@@ -1020,7 +1014,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3">
         <v>1040</v>
@@ -1041,10 +1035,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -1081,31 +1075,31 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="6"/>
     </row>
@@ -1143,9 +1137,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1165,24 +1159,24 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -1191,14 +1185,6 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
